--- a/Docs/HurricaneDevActivityLog.xlsx
+++ b/Docs/HurricaneDevActivityLog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chedwin14/GitHub/Hurricane/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Hurricane\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Added fstream</t>
   </si>
   <si>
-    <t>Memory leak detection</t>
-  </si>
-  <si>
     <t>Tested for potential memory leaks</t>
   </si>
   <si>
@@ -90,18 +87,50 @@
   </si>
   <si>
     <t>Created Hurricane game engine project and main function</t>
+  </si>
+  <si>
+    <t>Created the EdwinDesktop Branch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> denotes milestone or significant achievement</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloned from master</t>
+  </si>
+  <si>
+    <t>Memory leak detection functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,45 +185,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,6 +240,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,29 +511,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="10.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="14"/>
+    <col min="2" max="2" width="10.875" style="9"/>
+    <col min="3" max="3" width="10.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="54.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:10" ht="23.25">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="G1" t="s">
         <v>5</v>
       </c>
@@ -503,1101 +541,1112 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()</f>
         <v>42400</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.5">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>42389</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>42397</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42400</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42397</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>42400</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5">
         <f>COUNTA(D3:D202)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.5">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:1">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:1">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+    <row r="25" spans="1:1">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+    <row r="26" spans="1:1">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+    <row r="27" spans="1:1">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="28" spans="1:1">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+    <row r="29" spans="1:1">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+    <row r="30" spans="1:1">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+    <row r="31" spans="1:1">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+    <row r="32" spans="1:1">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+    <row r="33" spans="1:1">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+    <row r="34" spans="1:1">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="35" spans="1:1">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:1">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+    <row r="37" spans="1:1">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="38" spans="1:1">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+    <row r="39" spans="1:1">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:1">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:1">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+    <row r="42" spans="1:1">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+    <row r="43" spans="1:1">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+    <row r="44" spans="1:1">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+    <row r="45" spans="1:1">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+    <row r="46" spans="1:1">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" spans="1:1">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" spans="1:1">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+    <row r="49" spans="1:1">
+      <c r="A49" s="14">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+    <row r="50" spans="1:1">
+      <c r="A50" s="14">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+    <row r="51" spans="1:1">
+      <c r="A51" s="14">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+    <row r="52" spans="1:1">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+    <row r="53" spans="1:1">
+      <c r="A53" s="14">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+    <row r="54" spans="1:1">
+      <c r="A54" s="14">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+    <row r="55" spans="1:1">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+    <row r="56" spans="1:1">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+    <row r="57" spans="1:1">
+      <c r="A57" s="14">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+    <row r="58" spans="1:1">
+      <c r="A58" s="14">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+    <row r="59" spans="1:1">
+      <c r="A59" s="14">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+    <row r="60" spans="1:1">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+    <row r="61" spans="1:1">
+      <c r="A61" s="14">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+    <row r="62" spans="1:1">
+      <c r="A62" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+    <row r="63" spans="1:1">
+      <c r="A63" s="14">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+    <row r="64" spans="1:1">
+      <c r="A64" s="14">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+    <row r="65" spans="1:1">
+      <c r="A65" s="14">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+    <row r="66" spans="1:1">
+      <c r="A66" s="14">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+    <row r="67" spans="1:1">
+      <c r="A67" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+    <row r="68" spans="1:1">
+      <c r="A68" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+    <row r="69" spans="1:1">
+      <c r="A69" s="14">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+    <row r="70" spans="1:1">
+      <c r="A70" s="14">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+    <row r="71" spans="1:1">
+      <c r="A71" s="14">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+    <row r="72" spans="1:1">
+      <c r="A72" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+    <row r="73" spans="1:1">
+      <c r="A73" s="14">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+    <row r="74" spans="1:1">
+      <c r="A74" s="14">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+    <row r="75" spans="1:1">
+      <c r="A75" s="14">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+    <row r="76" spans="1:1">
+      <c r="A76" s="14">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+    <row r="77" spans="1:1">
+      <c r="A77" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+    <row r="78" spans="1:1">
+      <c r="A78" s="14">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+    <row r="79" spans="1:1">
+      <c r="A79" s="14">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+    <row r="80" spans="1:1">
+      <c r="A80" s="14">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+    <row r="81" spans="1:1">
+      <c r="A81" s="14">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+    <row r="82" spans="1:1">
+      <c r="A82" s="14">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+    <row r="83" spans="1:1">
+      <c r="A83" s="14">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+    <row r="84" spans="1:1">
+      <c r="A84" s="14">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+    <row r="85" spans="1:1">
+      <c r="A85" s="14">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+    <row r="86" spans="1:1">
+      <c r="A86" s="14">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+    <row r="87" spans="1:1">
+      <c r="A87" s="14">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+    <row r="88" spans="1:1">
+      <c r="A88" s="14">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+    <row r="89" spans="1:1">
+      <c r="A89" s="14">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+    <row r="90" spans="1:1">
+      <c r="A90" s="14">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+    <row r="91" spans="1:1">
+      <c r="A91" s="14">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+    <row r="92" spans="1:1">
+      <c r="A92" s="14">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+    <row r="93" spans="1:1">
+      <c r="A93" s="14">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+    <row r="94" spans="1:1">
+      <c r="A94" s="14">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+    <row r="95" spans="1:1">
+      <c r="A95" s="14">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+    <row r="96" spans="1:1">
+      <c r="A96" s="14">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+    <row r="97" spans="1:1">
+      <c r="A97" s="14">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+    <row r="98" spans="1:1">
+      <c r="A98" s="14">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+    <row r="99" spans="1:1">
+      <c r="A99" s="14">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+    <row r="100" spans="1:1">
+      <c r="A100" s="14">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
+    <row r="101" spans="1:1">
+      <c r="A101" s="14">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+    <row r="102" spans="1:1">
+      <c r="A102" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+    <row r="103" spans="1:1">
+      <c r="A103" s="14">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+    <row r="104" spans="1:1">
+      <c r="A104" s="14">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+    <row r="105" spans="1:1">
+      <c r="A105" s="14">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+    <row r="106" spans="1:1">
+      <c r="A106" s="14">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+    <row r="107" spans="1:1">
+      <c r="A107" s="14">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+    <row r="108" spans="1:1">
+      <c r="A108" s="14">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+    <row r="109" spans="1:1">
+      <c r="A109" s="14">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+    <row r="110" spans="1:1">
+      <c r="A110" s="14">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+    <row r="111" spans="1:1">
+      <c r="A111" s="14">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+    <row r="112" spans="1:1">
+      <c r="A112" s="14">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+    <row r="113" spans="1:1">
+      <c r="A113" s="14">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+    <row r="114" spans="1:1">
+      <c r="A114" s="14">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+    <row r="115" spans="1:1">
+      <c r="A115" s="14">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+    <row r="116" spans="1:1">
+      <c r="A116" s="14">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+    <row r="117" spans="1:1">
+      <c r="A117" s="14">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+    <row r="118" spans="1:1">
+      <c r="A118" s="14">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+    <row r="119" spans="1:1">
+      <c r="A119" s="14">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+    <row r="120" spans="1:1">
+      <c r="A120" s="14">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+    <row r="121" spans="1:1">
+      <c r="A121" s="14">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+    <row r="122" spans="1:1">
+      <c r="A122" s="14">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
+    <row r="123" spans="1:1">
+      <c r="A123" s="14">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+    <row r="124" spans="1:1">
+      <c r="A124" s="14">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
+    <row r="125" spans="1:1">
+      <c r="A125" s="14">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
+    <row r="126" spans="1:1">
+      <c r="A126" s="14">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+    <row r="127" spans="1:1">
+      <c r="A127" s="14">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+    <row r="128" spans="1:1">
+      <c r="A128" s="14">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
+    <row r="129" spans="1:1">
+      <c r="A129" s="14">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+    <row r="130" spans="1:1">
+      <c r="A130" s="14">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
+    <row r="131" spans="1:1">
+      <c r="A131" s="14">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
+    <row r="132" spans="1:1">
+      <c r="A132" s="14">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
+    <row r="133" spans="1:1">
+      <c r="A133" s="14">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
+    <row r="134" spans="1:1">
+      <c r="A134" s="14">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
+    <row r="135" spans="1:1">
+      <c r="A135" s="14">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
+    <row r="136" spans="1:1">
+      <c r="A136" s="14">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8">
+    <row r="137" spans="1:1">
+      <c r="A137" s="14">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
+    <row r="138" spans="1:1">
+      <c r="A138" s="14">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
+    <row r="139" spans="1:1">
+      <c r="A139" s="14">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
+    <row r="140" spans="1:1">
+      <c r="A140" s="14">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+    <row r="141" spans="1:1">
+      <c r="A141" s="14">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
+    <row r="142" spans="1:1">
+      <c r="A142" s="14">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8">
+    <row r="143" spans="1:1">
+      <c r="A143" s="14">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
+    <row r="144" spans="1:1">
+      <c r="A144" s="14">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
+    <row r="145" spans="1:1">
+      <c r="A145" s="14">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
+    <row r="146" spans="1:1">
+      <c r="A146" s="14">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
+    <row r="147" spans="1:1">
+      <c r="A147" s="14">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
+    <row r="148" spans="1:1">
+      <c r="A148" s="14">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8">
+    <row r="149" spans="1:1">
+      <c r="A149" s="14">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8">
+    <row r="150" spans="1:1">
+      <c r="A150" s="14">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8">
+    <row r="151" spans="1:1">
+      <c r="A151" s="14">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8">
+    <row r="152" spans="1:1">
+      <c r="A152" s="14">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8">
+    <row r="153" spans="1:1">
+      <c r="A153" s="14">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
+    <row r="154" spans="1:1">
+      <c r="A154" s="14">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8">
+    <row r="155" spans="1:1">
+      <c r="A155" s="14">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
+    <row r="156" spans="1:1">
+      <c r="A156" s="14">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8">
+    <row r="157" spans="1:1">
+      <c r="A157" s="14">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+    <row r="158" spans="1:1">
+      <c r="A158" s="14">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+    <row r="159" spans="1:1">
+      <c r="A159" s="14">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+    <row r="160" spans="1:1">
+      <c r="A160" s="14">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+    <row r="161" spans="1:1">
+      <c r="A161" s="14">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+    <row r="162" spans="1:1">
+      <c r="A162" s="14">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+    <row r="163" spans="1:1">
+      <c r="A163" s="14">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+    <row r="164" spans="1:1">
+      <c r="A164" s="14">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+    <row r="165" spans="1:1">
+      <c r="A165" s="14">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+    <row r="166" spans="1:1">
+      <c r="A166" s="14">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
+    <row r="167" spans="1:1">
+      <c r="A167" s="14">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8">
+    <row r="168" spans="1:1">
+      <c r="A168" s="14">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8">
+    <row r="169" spans="1:1">
+      <c r="A169" s="14">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8">
+    <row r="170" spans="1:1">
+      <c r="A170" s="14">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="8">
+    <row r="171" spans="1:1">
+      <c r="A171" s="14">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="8">
+    <row r="172" spans="1:1">
+      <c r="A172" s="14">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="8">
+    <row r="173" spans="1:1">
+      <c r="A173" s="14">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8">
+    <row r="174" spans="1:1">
+      <c r="A174" s="14">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8">
+    <row r="175" spans="1:1">
+      <c r="A175" s="14">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="8">
+    <row r="176" spans="1:1">
+      <c r="A176" s="14">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="8">
+    <row r="177" spans="1:1">
+      <c r="A177" s="14">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="8">
+    <row r="178" spans="1:1">
+      <c r="A178" s="14">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="8">
+    <row r="179" spans="1:1">
+      <c r="A179" s="14">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8">
+    <row r="180" spans="1:1">
+      <c r="A180" s="14">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8">
+    <row r="181" spans="1:1">
+      <c r="A181" s="14">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
+    <row r="182" spans="1:1">
+      <c r="A182" s="14">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
+    <row r="183" spans="1:1">
+      <c r="A183" s="14">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
+    <row r="184" spans="1:1">
+      <c r="A184" s="14">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8">
+    <row r="185" spans="1:1">
+      <c r="A185" s="14">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
+    <row r="186" spans="1:1">
+      <c r="A186" s="14">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
+    <row r="187" spans="1:1">
+      <c r="A187" s="14">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
+    <row r="188" spans="1:1">
+      <c r="A188" s="14">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
+    <row r="189" spans="1:1">
+      <c r="A189" s="14">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
+    <row r="190" spans="1:1">
+      <c r="A190" s="14">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
+    <row r="191" spans="1:1">
+      <c r="A191" s="14">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
+    <row r="192" spans="1:1">
+      <c r="A192" s="14">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
+    <row r="193" spans="1:1">
+      <c r="A193" s="14">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
+    <row r="194" spans="1:1">
+      <c r="A194" s="14">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="8">
+    <row r="195" spans="1:1">
+      <c r="A195" s="14">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
+    <row r="196" spans="1:1">
+      <c r="A196" s="14">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="8">
+    <row r="197" spans="1:1">
+      <c r="A197" s="14">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="8">
+    <row r="198" spans="1:1">
+      <c r="A198" s="14">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="8">
+    <row r="199" spans="1:1">
+      <c r="A199" s="14">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="8">
+    <row r="200" spans="1:1">
+      <c r="A200" s="14">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="8">
+    <row r="201" spans="1:1">
+      <c r="A201" s="14">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8">
+    <row r="202" spans="1:1">
+      <c r="A202" s="14">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/HurricaneDevActivityLog.xlsx
+++ b/Docs/HurricaneDevActivityLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -74,22 +74,116 @@
     <t>Made initial commit to the GitHub repository</t>
   </si>
   <si>
-    <t>#include &lt;exception&gt;</t>
-  </si>
-  <si>
-    <t>#include &lt;fstream&gt;</t>
-  </si>
-  <si>
     <t>Use of _CrtSetDbgFlag() and _CrtSetBreakAlloc() method in main method</t>
   </si>
   <si>
     <t>Entry #</t>
   </si>
   <si>
-    <t>Writes to Debug::Log file and set breakpoint if mem leak is found</t>
-  </si>
-  <si>
     <t>Created Hurricane game engine project and main function</t>
+  </si>
+  <si>
+    <t>Began reading resource material</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Completed chapter 1 from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game Engine Architechiture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Jason Gregory</t>
+    </r>
+  </si>
+  <si>
+    <t>Commenced GDD</t>
+  </si>
+  <si>
+    <t>Added in more header files</t>
+  </si>
+  <si>
+    <t>This includes: Vector, Window, Matrix</t>
+  </si>
+  <si>
+    <t>Installed SDL in the project</t>
+  </si>
+  <si>
+    <t>Created a relative path in the project properties to be exported</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>Created additional macro defines</t>
+  </si>
+  <si>
+    <t>Type defined std::string</t>
+  </si>
+  <si>
+    <t>Changed to "eString"</t>
+  </si>
+  <si>
+    <t>Convinence function for display std::cerr</t>
+  </si>
+  <si>
+    <t>includes exception header</t>
+  </si>
+  <si>
+    <t>includes fstream header</t>
+  </si>
+  <si>
+    <t>Writes to Debug file and set breakpoint if memory leak is found</t>
+  </si>
+  <si>
+    <t>cassert, memory,  stdio headers</t>
+  </si>
+  <si>
+    <t>In Debug, defined and implemented ConsoleError()</t>
+  </si>
+  <si>
+    <t>Added more functionality to Window</t>
+  </si>
+  <si>
+    <t>OnCreate(), OnDestroy(), etc. Made the class "wrap" the SDL calls</t>
+  </si>
+  <si>
+    <t>Created the HurricaneEngine class</t>
+  </si>
+  <si>
+    <t>The engine object is implemented as a singleton. Uses a smart pointer to track its own lifetime.</t>
+  </si>
+  <si>
+    <t>A typedef macro-define header has been implemented but is not currently functional</t>
+  </si>
+  <si>
+    <t>May not keep this in since redefining primitive data types is redundant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Building off a given template</t>
+  </si>
+  <si>
+    <t>This may help out me figure out WHAT I WANT the engine to be. UML diagrams, use cases would be a good start.</t>
+  </si>
+  <si>
+    <t>Starting to plan out the game engine design pattern rather than actual coding. This entitles more research.</t>
   </si>
 </sst>
 </file>
@@ -97,11 +191,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +216,13 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -159,13 +260,10 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,16 +272,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -193,8 +285,17 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,27 +576,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="10.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="10.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="G1" t="s">
         <v>5</v>
       </c>
@@ -504,1098 +605,1191 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()</f>
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42389</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42397</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
         <v>42400</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42389</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42397</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>42400</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5">
         <f>COUNTA(D3:D202)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42403</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>42404</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42405</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="5">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="5">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="A64" s="5">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+      <c r="A65" s="5">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="A66" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+      <c r="A67" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68" s="5">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="A69" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70" s="5">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="A75" s="5">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="A76" s="5">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+      <c r="A77" s="5">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A78" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="A79" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="A80" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+      <c r="A81" s="5">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+      <c r="A83" s="5">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+      <c r="A84" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+      <c r="A85" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+      <c r="A87" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="A88" s="5">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="A89" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="A90" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+      <c r="A91" s="5">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+      <c r="A93" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="A94" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+      <c r="A95" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="A96" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="A98" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+      <c r="A99" s="5">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="A100" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
+      <c r="A101" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="5">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="5">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="5">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+      <c r="A111" s="5">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="A112" s="5">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="5">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="5">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+      <c r="A115" s="5">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="5">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+      <c r="A117" s="5">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="A119" s="5">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="5">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+      <c r="A121" s="5">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+      <c r="A122" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
+      <c r="A123" s="5">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+      <c r="A124" s="5">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
+      <c r="A125" s="5">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
+      <c r="A126" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+      <c r="A127" s="5">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+      <c r="A128" s="5">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
+      <c r="A129" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+      <c r="A130" s="5">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
+      <c r="A131" s="5">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
+      <c r="A132" s="5">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
+      <c r="A133" s="5">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
+      <c r="A134" s="5">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
+      <c r="A135" s="5">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
+      <c r="A136" s="5">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8">
+      <c r="A137" s="5">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
+      <c r="A138" s="5">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
+      <c r="A139" s="5">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
+      <c r="A140" s="5">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+      <c r="A141" s="5">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
+      <c r="A142" s="5">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8">
+      <c r="A143" s="5">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
+      <c r="A144" s="5">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
+      <c r="A145" s="5">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
+      <c r="A146" s="5">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
+      <c r="A147" s="5">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
+      <c r="A148" s="5">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8">
+      <c r="A149" s="5">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8">
+      <c r="A150" s="5">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8">
+      <c r="A151" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8">
+      <c r="A152" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8">
+      <c r="A153" s="5">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
+      <c r="A154" s="5">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8">
+      <c r="A155" s="5">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
+      <c r="A156" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8">
+      <c r="A157" s="5">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+      <c r="A158" s="5">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+      <c r="A159" s="5">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+      <c r="A160" s="5">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+      <c r="A161" s="5">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+      <c r="A162" s="5">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+      <c r="A163" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="A164" s="5">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="A165" s="5">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+      <c r="A166" s="5">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
+      <c r="A167" s="5">
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8">
+      <c r="A168" s="5">
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8">
+      <c r="A169" s="5">
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8">
+      <c r="A170" s="5">
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="8">
+      <c r="A171" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="8">
+      <c r="A172" s="5">
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="8">
+      <c r="A173" s="5">
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8">
+      <c r="A174" s="5">
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8">
+      <c r="A175" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="8">
+      <c r="A176" s="5">
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="8">
+      <c r="A177" s="5">
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="8">
+      <c r="A178" s="5">
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="8">
+      <c r="A179" s="5">
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8">
+      <c r="A180" s="5">
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8">
+      <c r="A181" s="5">
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
+      <c r="A182" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
+      <c r="A183" s="5">
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
+      <c r="A184" s="5">
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8">
+      <c r="A185" s="5">
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
+      <c r="A186" s="5">
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
+      <c r="A187" s="5">
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
+      <c r="A188" s="5">
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
+      <c r="A189" s="5">
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
+      <c r="A190" s="5">
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
+      <c r="A191" s="5">
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
+      <c r="A192" s="5">
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
+      <c r="A193" s="5">
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
+      <c r="A194" s="5">
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="8">
+      <c r="A195" s="5">
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
+      <c r="A196" s="5">
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="8">
+      <c r="A197" s="5">
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="8">
+      <c r="A198" s="5">
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="8">
+      <c r="A199" s="5">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="8">
+      <c r="A200" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="8">
+      <c r="A201" s="5">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8">
+      <c r="A202" s="5">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
